--- a/data/Laporan_Sembako.xlsx
+++ b/data/Laporan_Sembako.xlsx
@@ -10,6 +10,11 @@
     <sheet name="Stok Barang" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Top 10 Pembeli" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Penjualan Harian" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Barang Terlaris" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Barang Tidak Laku" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Barang Hampir Habis" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Prediksi Stok" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Grafik Penjualan" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +23,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -61,14 +68,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -143,6 +152,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,7 +482,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Barang</t>
         </is>
@@ -564,7 +603,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Nama Pembeli</t>
         </is>
@@ -715,7 +754,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>tanggal</t>
         </is>
@@ -732,10 +771,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2020-01-02</t>
-        </is>
+      <c r="A2" s="4" t="n">
+        <v>43832</v>
       </c>
       <c r="B2" t="n">
         <v>110976900</v>
@@ -745,10 +782,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2020-01-03</t>
-        </is>
+      <c r="A3" s="4" t="n">
+        <v>43833</v>
       </c>
       <c r="B3" t="n">
         <v>16459900</v>
@@ -758,10 +793,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
-        </is>
+      <c r="A4" s="4" t="n">
+        <v>43836</v>
       </c>
       <c r="B4" t="n">
         <v>29308000</v>
@@ -771,10 +804,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2020-01-07</t>
-        </is>
+      <c r="A5" s="4" t="n">
+        <v>43837</v>
       </c>
       <c r="B5" t="n">
         <v>22990500</v>
@@ -784,10 +815,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2020-01-09</t>
-        </is>
+      <c r="A6" s="4" t="n">
+        <v>43839</v>
       </c>
       <c r="B6" t="n">
         <v>35534500</v>
@@ -797,10 +826,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2020-01-10</t>
-        </is>
+      <c r="A7" s="4" t="n">
+        <v>43840</v>
       </c>
       <c r="B7" t="n">
         <v>165990100</v>
@@ -810,10 +837,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2020-01-13</t>
-        </is>
+      <c r="A8" s="4" t="n">
+        <v>43843</v>
       </c>
       <c r="B8" t="n">
         <v>139992500</v>
@@ -823,10 +848,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2020-01-14</t>
-        </is>
+      <c r="A9" s="4" t="n">
+        <v>43844</v>
       </c>
       <c r="B9" t="n">
         <v>6320000</v>
@@ -836,10 +859,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2020-01-16</t>
-        </is>
+      <c r="A10" s="4" t="n">
+        <v>43846</v>
       </c>
       <c r="B10" t="n">
         <v>15582000</v>
@@ -849,10 +870,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2020-01-20</t>
-        </is>
+      <c r="A11" s="4" t="n">
+        <v>43850</v>
       </c>
       <c r="B11" t="n">
         <v>32146000</v>
@@ -862,10 +881,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2020-01-21</t>
-        </is>
+      <c r="A12" s="4" t="n">
+        <v>43851</v>
       </c>
       <c r="B12" t="n">
         <v>111825000</v>
@@ -875,10 +892,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2020-01-22</t>
-        </is>
+      <c r="A13" s="4" t="n">
+        <v>43852</v>
       </c>
       <c r="B13" t="n">
         <v>27888000</v>
@@ -888,10 +903,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
+      <c r="A14" s="4" t="n">
+        <v>43853</v>
       </c>
       <c r="B14" t="n">
         <v>210000000</v>
@@ -901,10 +914,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2020-01-27</t>
-        </is>
+      <c r="A15" s="4" t="n">
+        <v>43857</v>
       </c>
       <c r="B15" t="n">
         <v>11504000</v>
@@ -914,10 +925,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2020-01-28</t>
-        </is>
+      <c r="A16" s="4" t="n">
+        <v>43858</v>
       </c>
       <c r="B16" t="n">
         <v>281342500</v>
@@ -927,10 +936,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2020-01-29</t>
-        </is>
+      <c r="A17" s="4" t="n">
+        <v>43859</v>
       </c>
       <c r="B17" t="n">
         <v>19607900</v>
@@ -940,10 +947,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2020-01-30</t>
-        </is>
+      <c r="A18" s="4" t="n">
+        <v>43860</v>
       </c>
       <c r="B18" t="n">
         <v>256392000</v>
@@ -953,10 +958,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2020-02-03</t>
-        </is>
+      <c r="A19" s="4" t="n">
+        <v>43864</v>
       </c>
       <c r="B19" t="n">
         <v>19462800</v>
@@ -966,10 +969,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2020-02-04</t>
-        </is>
+      <c r="A20" s="4" t="n">
+        <v>43865</v>
       </c>
       <c r="B20" t="n">
         <v>7380000</v>
@@ -979,10 +980,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2020-02-05</t>
-        </is>
+      <c r="A21" s="4" t="n">
+        <v>43866</v>
       </c>
       <c r="B21" t="n">
         <v>446346000</v>
@@ -992,10 +991,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2020-02-06</t>
-        </is>
+      <c r="A22" s="4" t="n">
+        <v>43867</v>
       </c>
       <c r="B22" t="n">
         <v>180554000</v>
@@ -1005,10 +1002,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2020-02-07</t>
-        </is>
+      <c r="A23" s="4" t="n">
+        <v>43868</v>
       </c>
       <c r="B23" t="n">
         <v>168000000</v>
@@ -1018,10 +1013,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2020-02-10</t>
-        </is>
+      <c r="A24" s="4" t="n">
+        <v>43871</v>
       </c>
       <c r="B24" t="n">
         <v>175875000</v>
@@ -1031,10 +1024,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2020-02-11</t>
-        </is>
+      <c r="A25" s="4" t="n">
+        <v>43872</v>
       </c>
       <c r="B25" t="n">
         <v>9647250</v>
@@ -1044,10 +1035,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2020-02-12</t>
-        </is>
+      <c r="A26" s="4" t="n">
+        <v>43873</v>
       </c>
       <c r="B26" t="n">
         <v>11223000</v>
@@ -1057,10 +1046,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2020-02-13</t>
-        </is>
+      <c r="A27" s="4" t="n">
+        <v>43874</v>
       </c>
       <c r="B27" t="n">
         <v>7858400</v>
@@ -1070,10 +1057,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
-        </is>
+      <c r="A28" s="4" t="n">
+        <v>43875</v>
       </c>
       <c r="B28" t="n">
         <v>8349550</v>
@@ -1083,10 +1068,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2020-02-17</t>
-        </is>
+      <c r="A29" s="4" t="n">
+        <v>43878</v>
       </c>
       <c r="B29" t="n">
         <v>9749550</v>
@@ -1096,10 +1079,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2020-02-18</t>
-        </is>
+      <c r="A30" s="4" t="n">
+        <v>43879</v>
       </c>
       <c r="B30" t="n">
         <v>7367250</v>
@@ -1109,10 +1090,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2020-02-19</t>
-        </is>
+      <c r="A31" s="4" t="n">
+        <v>43880</v>
       </c>
       <c r="B31" t="n">
         <v>15716800</v>
@@ -1122,10 +1101,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2020-02-20</t>
-        </is>
+      <c r="A32" s="4" t="n">
+        <v>43881</v>
       </c>
       <c r="B32" t="n">
         <v>592410000</v>
@@ -1135,10 +1112,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2020-02-21</t>
-        </is>
+      <c r="A33" s="4" t="n">
+        <v>43882</v>
       </c>
       <c r="B33" t="n">
         <v>504000000</v>
@@ -1148,10 +1123,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2020-02-25</t>
-        </is>
+      <c r="A34" s="4" t="n">
+        <v>43886</v>
       </c>
       <c r="B34" t="n">
         <v>181318400</v>
@@ -1161,10 +1134,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2020-02-26</t>
-        </is>
+      <c r="A35" s="4" t="n">
+        <v>43887</v>
       </c>
       <c r="B35" t="n">
         <v>39303000</v>
@@ -1174,10 +1145,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2020-02-27</t>
-        </is>
+      <c r="A36" s="4" t="n">
+        <v>43888</v>
       </c>
       <c r="B36" t="n">
         <v>29537600</v>
@@ -1187,10 +1156,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2020-03-03</t>
-        </is>
+      <c r="A37" s="4" t="n">
+        <v>43893</v>
       </c>
       <c r="B37" t="n">
         <v>23690800</v>
@@ -1200,10 +1167,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2020-03-04</t>
-        </is>
+      <c r="A38" s="4" t="n">
+        <v>43894</v>
       </c>
       <c r="B38" t="n">
         <v>6494200</v>
@@ -1213,10 +1178,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2020-03-05</t>
-        </is>
+      <c r="A39" s="4" t="n">
+        <v>43895</v>
       </c>
       <c r="B39" t="n">
         <v>16170000</v>
@@ -1226,10 +1189,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2020-03-06</t>
-        </is>
+      <c r="A40" s="4" t="n">
+        <v>43896</v>
       </c>
       <c r="B40" t="n">
         <v>92338400</v>
@@ -1239,10 +1200,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2020-03-09</t>
-        </is>
+      <c r="A41" s="4" t="n">
+        <v>43899</v>
       </c>
       <c r="B41" t="n">
         <v>18976200</v>
@@ -1252,10 +1211,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2020-03-10</t>
-        </is>
+      <c r="A42" s="4" t="n">
+        <v>43900</v>
       </c>
       <c r="B42" t="n">
         <v>212730000</v>
@@ -1265,10 +1222,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2020-03-11</t>
-        </is>
+      <c r="A43" s="4" t="n">
+        <v>43901</v>
       </c>
       <c r="B43" t="n">
         <v>277430800</v>
@@ -1278,10 +1233,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2020-03-12</t>
-        </is>
+      <c r="A44" s="4" t="n">
+        <v>43902</v>
       </c>
       <c r="B44" t="n">
         <v>10411600</v>
@@ -1291,10 +1244,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2020-03-13</t>
-        </is>
+      <c r="A45" s="4" t="n">
+        <v>43903</v>
       </c>
       <c r="B45" t="n">
         <v>452550000</v>
@@ -1304,10 +1255,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2020-03-17</t>
-        </is>
+      <c r="A46" s="4" t="n">
+        <v>43907</v>
       </c>
       <c r="B46" t="n">
         <v>35359300</v>
@@ -1317,10 +1266,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2020-03-18</t>
-        </is>
+      <c r="A47" s="4" t="n">
+        <v>43908</v>
       </c>
       <c r="B47" t="n">
         <v>27187600</v>
@@ -1330,10 +1277,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2020-03-19</t>
-        </is>
+      <c r="A48" s="4" t="n">
+        <v>43909</v>
       </c>
       <c r="B48" t="n">
         <v>420000000</v>
@@ -1343,10 +1288,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2020-03-20</t>
-        </is>
+      <c r="A49" s="4" t="n">
+        <v>43910</v>
       </c>
       <c r="B49" t="n">
         <v>16619300</v>
@@ -1356,10 +1299,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2020-03-23</t>
-        </is>
+      <c r="A50" s="4" t="n">
+        <v>43913</v>
       </c>
       <c r="B50" t="n">
         <v>32225800</v>
@@ -1369,10 +1310,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2020-03-24</t>
-        </is>
+      <c r="A51" s="4" t="n">
+        <v>43914</v>
       </c>
       <c r="B51" t="n">
         <v>23413000</v>
@@ -1382,10 +1321,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2020-03-26</t>
-        </is>
+      <c r="A52" s="4" t="n">
+        <v>43916</v>
       </c>
       <c r="B52" t="n">
         <v>10093800</v>
@@ -1395,10 +1332,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2020-03-30</t>
-        </is>
+      <c r="A53" s="4" t="n">
+        <v>43920</v>
       </c>
       <c r="B53" t="n">
         <v>23552200</v>
@@ -1408,10 +1343,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2020-04-03</t>
-        </is>
+      <c r="A54" s="4" t="n">
+        <v>43924</v>
       </c>
       <c r="B54" t="n">
         <v>78750000</v>
@@ -1421,10 +1354,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2020-04-06</t>
-        </is>
+      <c r="A55" s="4" t="n">
+        <v>43927</v>
       </c>
       <c r="B55" t="n">
         <v>32550000</v>
@@ -1434,10 +1365,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2020-04-07</t>
-        </is>
+      <c r="A56" s="4" t="n">
+        <v>43928</v>
       </c>
       <c r="B56" t="n">
         <v>57120000</v>
@@ -1447,10 +1376,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2020-04-08</t>
-        </is>
+      <c r="A57" s="4" t="n">
+        <v>43929</v>
       </c>
       <c r="B57" t="n">
         <v>28000000</v>
@@ -1460,10 +1387,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2020-04-09</t>
-        </is>
+      <c r="A58" s="4" t="n">
+        <v>43930</v>
       </c>
       <c r="B58" t="n">
         <v>9765000</v>
@@ -1473,10 +1398,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2020-04-13</t>
-        </is>
+      <c r="A59" s="4" t="n">
+        <v>43934</v>
       </c>
       <c r="B59" t="n">
         <v>214725000</v>
@@ -1486,10 +1409,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2020-04-14</t>
-        </is>
+      <c r="A60" s="4" t="n">
+        <v>43935</v>
       </c>
       <c r="B60" t="n">
         <v>125372400</v>
@@ -1499,10 +1420,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2020-04-15</t>
-        </is>
+      <c r="A61" s="4" t="n">
+        <v>43936</v>
       </c>
       <c r="B61" t="n">
         <v>152775000</v>
@@ -1512,10 +1431,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2020-04-16</t>
-        </is>
+      <c r="A62" s="4" t="n">
+        <v>43937</v>
       </c>
       <c r="B62" t="n">
         <v>51733500</v>
@@ -1525,10 +1442,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2020-04-20</t>
-        </is>
+      <c r="A63" s="4" t="n">
+        <v>43941</v>
       </c>
       <c r="B63" t="n">
         <v>85549100</v>
@@ -1538,10 +1453,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2020-04-22</t>
-        </is>
+      <c r="A64" s="4" t="n">
+        <v>43943</v>
       </c>
       <c r="B64" t="n">
         <v>35000000</v>
@@ -1551,10 +1464,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2020-04-24</t>
-        </is>
+      <c r="A65" s="4" t="n">
+        <v>43945</v>
       </c>
       <c r="B65" t="n">
         <v>91000000</v>
@@ -1564,10 +1475,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2020-04-28</t>
-        </is>
+      <c r="A66" s="4" t="n">
+        <v>43949</v>
       </c>
       <c r="B66" t="n">
         <v>132206000</v>
@@ -1577,10 +1486,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2020-04-29</t>
-        </is>
+      <c r="A67" s="4" t="n">
+        <v>43950</v>
       </c>
       <c r="B67" t="n">
         <v>46900000</v>
@@ -1590,10 +1497,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2020-05-13</t>
-        </is>
+      <c r="A68" s="4" t="n">
+        <v>43964</v>
       </c>
       <c r="B68" t="n">
         <v>2056158200</v>
@@ -1603,10 +1508,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2020-05-14</t>
-        </is>
+      <c r="A69" s="4" t="n">
+        <v>43965</v>
       </c>
       <c r="B69" t="n">
         <v>17121200</v>
@@ -1616,10 +1519,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2020-05-20</t>
-        </is>
+      <c r="A70" s="4" t="n">
+        <v>43971</v>
       </c>
       <c r="B70" t="n">
         <v>519500000</v>
@@ -1629,10 +1530,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2020-06-04</t>
-        </is>
+      <c r="A71" s="4" t="n">
+        <v>43986</v>
       </c>
       <c r="B71" t="n">
         <v>816493200</v>
@@ -1642,10 +1541,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2020-06-05</t>
-        </is>
+      <c r="A72" s="4" t="n">
+        <v>43987</v>
       </c>
       <c r="B72" t="n">
         <v>547608800</v>
@@ -1655,10 +1552,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2020-06-08</t>
-        </is>
+      <c r="A73" s="4" t="n">
+        <v>43990</v>
       </c>
       <c r="B73" t="n">
         <v>256200000</v>
@@ -1668,10 +1563,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2020-06-09</t>
-        </is>
+      <c r="A74" s="4" t="n">
+        <v>43991</v>
       </c>
       <c r="B74" t="n">
         <v>237600000</v>
@@ -1681,10 +1574,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2020-06-10</t>
-        </is>
+      <c r="A75" s="4" t="n">
+        <v>43992</v>
       </c>
       <c r="B75" t="n">
         <v>654497200</v>
@@ -1694,10 +1585,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2020-06-19</t>
-        </is>
+      <c r="A76" s="4" t="n">
+        <v>44001</v>
       </c>
       <c r="B76" t="n">
         <v>578701000</v>
@@ -1707,10 +1596,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2020-06-22</t>
-        </is>
+      <c r="A77" s="4" t="n">
+        <v>44004</v>
       </c>
       <c r="B77" t="n">
         <v>151040000</v>
@@ -1720,10 +1607,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2020-06-23</t>
-        </is>
+      <c r="A78" s="4" t="n">
+        <v>44005</v>
       </c>
       <c r="B78" t="n">
         <v>44509150</v>
@@ -1733,10 +1618,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2020-06-24</t>
-        </is>
+      <c r="A79" s="4" t="n">
+        <v>44006</v>
       </c>
       <c r="B79" t="n">
         <v>18550000</v>
@@ -1746,10 +1629,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2020-06-25</t>
-        </is>
+      <c r="A80" s="4" t="n">
+        <v>44007</v>
       </c>
       <c r="B80" t="n">
         <v>11205000</v>
@@ -1759,10 +1640,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2020-06-26</t>
-        </is>
+      <c r="A81" s="4" t="n">
+        <v>44008</v>
       </c>
       <c r="B81" t="n">
         <v>32954000</v>
@@ -1772,10 +1651,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2020-06-29</t>
-        </is>
+      <c r="A82" s="4" t="n">
+        <v>44011</v>
       </c>
       <c r="B82" t="n">
         <v>236250000</v>
@@ -1785,10 +1662,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2020-07-01</t>
-        </is>
+      <c r="A83" s="4" t="n">
+        <v>44013</v>
       </c>
       <c r="B83" t="n">
         <v>10956000</v>
@@ -1798,10 +1673,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2020-07-06</t>
-        </is>
+      <c r="A84" s="4" t="n">
+        <v>44018</v>
       </c>
       <c r="B84" t="n">
         <v>12289400</v>
@@ -1811,10 +1684,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2020-07-07</t>
-        </is>
+      <c r="A85" s="4" t="n">
+        <v>44019</v>
       </c>
       <c r="B85" t="n">
         <v>95340000</v>
@@ -1824,10 +1695,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2020-07-08</t>
-        </is>
+      <c r="A86" s="4" t="n">
+        <v>44020</v>
       </c>
       <c r="B86" t="n">
         <v>8924000</v>
@@ -1837,10 +1706,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2020-07-10</t>
-        </is>
+      <c r="A87" s="4" t="n">
+        <v>44022</v>
       </c>
       <c r="B87" t="n">
         <v>22420000</v>
@@ -1850,10 +1717,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2020-07-13</t>
-        </is>
+      <c r="A88" s="4" t="n">
+        <v>44025</v>
       </c>
       <c r="B88" t="n">
         <v>802635450</v>
@@ -1863,10 +1728,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2020-07-14</t>
-        </is>
+      <c r="A89" s="4" t="n">
+        <v>44026</v>
       </c>
       <c r="B89" t="n">
         <v>97650000</v>
@@ -1876,10 +1739,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2020-07-17</t>
-        </is>
+      <c r="A90" s="4" t="n">
+        <v>44029</v>
       </c>
       <c r="B90" t="n">
         <v>276615250</v>
@@ -1889,10 +1750,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2020-07-20</t>
-        </is>
+      <c r="A91" s="4" t="n">
+        <v>44032</v>
       </c>
       <c r="B91" t="n">
         <v>212426100</v>
@@ -1902,10 +1761,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2020-07-21</t>
-        </is>
+      <c r="A92" s="4" t="n">
+        <v>44033</v>
       </c>
       <c r="B92" t="n">
         <v>158207800</v>
@@ -1915,10 +1772,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2020-07-28</t>
-        </is>
+      <c r="A93" s="4" t="n">
+        <v>44040</v>
       </c>
       <c r="B93" t="n">
         <v>111692500</v>
@@ -1928,10 +1783,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2020-08-04</t>
-        </is>
+      <c r="A94" s="4" t="n">
+        <v>44047</v>
       </c>
       <c r="B94" t="n">
         <v>5600000</v>
@@ -1941,10 +1794,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2020-08-11</t>
-        </is>
+      <c r="A95" s="4" t="n">
+        <v>44054</v>
       </c>
       <c r="B95" t="n">
         <v>874934250</v>
@@ -1954,10 +1805,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2020-08-12</t>
-        </is>
+      <c r="A96" s="4" t="n">
+        <v>44055</v>
       </c>
       <c r="B96" t="n">
         <v>3095080</v>
@@ -1967,10 +1816,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2020-08-14</t>
-        </is>
+      <c r="A97" s="4" t="n">
+        <v>44057</v>
       </c>
       <c r="B97" t="n">
         <v>381382000</v>
@@ -1980,10 +1827,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2020-08-19</t>
-        </is>
+      <c r="A98" s="4" t="n">
+        <v>44062</v>
       </c>
       <c r="B98" t="n">
         <v>15263250</v>
@@ -1993,10 +1838,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2020-08-24</t>
-        </is>
+      <c r="A99" s="4" t="n">
+        <v>44067</v>
       </c>
       <c r="B99" t="n">
         <v>115887395</v>
@@ -2006,10 +1849,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2020-08-26</t>
-        </is>
+      <c r="A100" s="4" t="n">
+        <v>44069</v>
       </c>
       <c r="B100" t="n">
         <v>41940000</v>
@@ -2019,10 +1860,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2020-08-27</t>
-        </is>
+      <c r="A101" s="4" t="n">
+        <v>44070</v>
       </c>
       <c r="B101" t="n">
         <v>39365500</v>
@@ -2032,10 +1871,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2020-08-28</t>
-        </is>
+      <c r="A102" s="4" t="n">
+        <v>44071</v>
       </c>
       <c r="B102" t="n">
         <v>24064050</v>
@@ -2045,10 +1882,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2020-08-31</t>
-        </is>
+      <c r="A103" s="4" t="n">
+        <v>44074</v>
       </c>
       <c r="B103" t="n">
         <v>21787000</v>
@@ -2058,10 +1893,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2020-09-07</t>
-        </is>
+      <c r="A104" s="4" t="n">
+        <v>44081</v>
       </c>
       <c r="B104" t="n">
         <v>3540000</v>
@@ -2071,10 +1904,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2020-09-09</t>
-        </is>
+      <c r="A105" s="4" t="n">
+        <v>44083</v>
       </c>
       <c r="B105" t="n">
         <v>91017400</v>
@@ -2084,10 +1915,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2020-09-10</t>
-        </is>
+      <c r="A106" s="4" t="n">
+        <v>44084</v>
       </c>
       <c r="B106" t="n">
         <v>9671250</v>
@@ -2097,10 +1926,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2020-09-14</t>
-        </is>
+      <c r="A107" s="4" t="n">
+        <v>44088</v>
       </c>
       <c r="B107" t="n">
         <v>334086050</v>
@@ -2110,10 +1937,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2020-09-15</t>
-        </is>
+      <c r="A108" s="4" t="n">
+        <v>44089</v>
       </c>
       <c r="B108" t="n">
         <v>57753250</v>
@@ -2123,10 +1948,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2020-09-16</t>
-        </is>
+      <c r="A109" s="4" t="n">
+        <v>44090</v>
       </c>
       <c r="B109" t="n">
         <v>199707500</v>
@@ -2136,10 +1959,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2020-09-17</t>
-        </is>
+      <c r="A110" s="4" t="n">
+        <v>44091</v>
       </c>
       <c r="B110" t="n">
         <v>37800300</v>
@@ -2149,10 +1970,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2020-09-21</t>
-        </is>
+      <c r="A111" s="4" t="n">
+        <v>44095</v>
       </c>
       <c r="B111" t="n">
         <v>8352950</v>
@@ -2162,10 +1981,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2020-09-22</t>
-        </is>
+      <c r="A112" s="4" t="n">
+        <v>44096</v>
       </c>
       <c r="B112" t="n">
         <v>70502900</v>
@@ -2175,10 +1992,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2020-09-23</t>
-        </is>
+      <c r="A113" s="4" t="n">
+        <v>44097</v>
       </c>
       <c r="B113" t="n">
         <v>94515900</v>
@@ -2188,10 +2003,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2020-09-28</t>
-        </is>
+      <c r="A114" s="4" t="n">
+        <v>44102</v>
       </c>
       <c r="B114" t="n">
         <v>122674500</v>
@@ -2201,10 +2014,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2020-09-29</t>
-        </is>
+      <c r="A115" s="4" t="n">
+        <v>44103</v>
       </c>
       <c r="B115" t="n">
         <v>31676100</v>
@@ -2214,10 +2025,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2020-10-05</t>
-        </is>
+      <c r="A116" s="4" t="n">
+        <v>44109</v>
       </c>
       <c r="B116" t="n">
         <v>113300800</v>
@@ -2227,10 +2036,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2020-10-07</t>
-        </is>
+      <c r="A117" s="4" t="n">
+        <v>44111</v>
       </c>
       <c r="B117" t="n">
         <v>107174250</v>
@@ -2240,10 +2047,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2020-10-12</t>
-        </is>
+      <c r="A118" s="4" t="n">
+        <v>44116</v>
       </c>
       <c r="B118" t="n">
         <v>122617850</v>
@@ -2253,10 +2058,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2020-10-15</t>
-        </is>
+      <c r="A119" s="4" t="n">
+        <v>44119</v>
       </c>
       <c r="B119" t="n">
         <v>97864600</v>
@@ -2266,10 +2069,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2020-10-16</t>
-        </is>
+      <c r="A120" s="4" t="n">
+        <v>44120</v>
       </c>
       <c r="B120" t="n">
         <v>85290690</v>
@@ -2279,10 +2080,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2020-10-20</t>
-        </is>
+      <c r="A121" s="4" t="n">
+        <v>44124</v>
       </c>
       <c r="B121" t="n">
         <v>138373500</v>
@@ -2292,10 +2091,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>2020-10-22</t>
-        </is>
+      <c r="A122" s="4" t="n">
+        <v>44126</v>
       </c>
       <c r="B122" t="n">
         <v>12812520</v>
@@ -2305,10 +2102,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2020-10-23</t>
-        </is>
+      <c r="A123" s="4" t="n">
+        <v>44127</v>
       </c>
       <c r="B123" t="n">
         <v>95103950</v>
@@ -2318,10 +2113,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2020-10-26</t>
-        </is>
+      <c r="A124" s="4" t="n">
+        <v>44130</v>
       </c>
       <c r="B124" t="n">
         <v>87043500</v>
@@ -2331,10 +2124,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2020-11-04</t>
-        </is>
+      <c r="A125" s="4" t="n">
+        <v>44139</v>
       </c>
       <c r="B125" t="n">
         <v>17751840</v>
@@ -2344,10 +2135,8 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>2020-11-06</t>
-        </is>
+      <c r="A126" s="4" t="n">
+        <v>44141</v>
       </c>
       <c r="B126" t="n">
         <v>91011250</v>
@@ -2357,10 +2146,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>2020-11-09</t>
-        </is>
+      <c r="A127" s="4" t="n">
+        <v>44144</v>
       </c>
       <c r="B127" t="n">
         <v>99619500</v>
@@ -2370,10 +2157,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>2020-11-11</t>
-        </is>
+      <c r="A128" s="4" t="n">
+        <v>44146</v>
       </c>
       <c r="B128" t="n">
         <v>37572750</v>
@@ -2383,10 +2168,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>2020-11-12</t>
-        </is>
+      <c r="A129" s="4" t="n">
+        <v>44147</v>
       </c>
       <c r="B129" t="n">
         <v>41325700</v>
@@ -2396,10 +2179,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>2020-11-13</t>
-        </is>
+      <c r="A130" s="4" t="n">
+        <v>44148</v>
       </c>
       <c r="B130" t="n">
         <v>45318000</v>
@@ -2409,10 +2190,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>2020-11-16</t>
-        </is>
+      <c r="A131" s="4" t="n">
+        <v>44151</v>
       </c>
       <c r="B131" t="n">
         <v>172640000</v>
@@ -2422,10 +2201,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2020-11-17</t>
-        </is>
+      <c r="A132" s="4" t="n">
+        <v>44152</v>
       </c>
       <c r="B132" t="n">
         <v>186774900</v>
@@ -2435,10 +2212,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>2020-11-18</t>
-        </is>
+      <c r="A133" s="4" t="n">
+        <v>44153</v>
       </c>
       <c r="B133" t="n">
         <v>67977000</v>
@@ -2448,10 +2223,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2020-11-20</t>
-        </is>
+      <c r="A134" s="4" t="n">
+        <v>44155</v>
       </c>
       <c r="B134" t="n">
         <v>34747150</v>
@@ -2461,10 +2234,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2020-11-23</t>
-        </is>
+      <c r="A135" s="4" t="n">
+        <v>44158</v>
       </c>
       <c r="B135" t="n">
         <v>149549400</v>
@@ -2474,10 +2245,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>2020-11-24</t>
-        </is>
+      <c r="A136" s="4" t="n">
+        <v>44159</v>
       </c>
       <c r="B136" t="n">
         <v>366418895</v>
@@ -2487,10 +2256,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>2020-11-25</t>
-        </is>
+      <c r="A137" s="4" t="n">
+        <v>44160</v>
       </c>
       <c r="B137" t="n">
         <v>359771720</v>
@@ -2500,10 +2267,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>2020-11-26</t>
-        </is>
+      <c r="A138" s="4" t="n">
+        <v>44161</v>
       </c>
       <c r="B138" t="n">
         <v>184664410</v>
@@ -2513,10 +2278,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>2020-11-27</t>
-        </is>
+      <c r="A139" s="4" t="n">
+        <v>44162</v>
       </c>
       <c r="B139" t="n">
         <v>216432910</v>
@@ -2526,10 +2289,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>2020-12-01</t>
-        </is>
+      <c r="A140" s="4" t="n">
+        <v>44166</v>
       </c>
       <c r="B140" t="n">
         <v>249334120</v>
@@ -2539,10 +2300,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>2020-12-02</t>
-        </is>
+      <c r="A141" s="4" t="n">
+        <v>44167</v>
       </c>
       <c r="B141" t="n">
         <v>229134848</v>
@@ -2552,10 +2311,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2020-12-03</t>
-        </is>
+      <c r="A142" s="4" t="n">
+        <v>44168</v>
       </c>
       <c r="B142" t="n">
         <v>50142200</v>
@@ -2565,10 +2322,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2020-12-04</t>
-        </is>
+      <c r="A143" s="4" t="n">
+        <v>44169</v>
       </c>
       <c r="B143" t="n">
         <v>114897580</v>
@@ -2578,10 +2333,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>2020-12-07</t>
-        </is>
+      <c r="A144" s="4" t="n">
+        <v>44172</v>
       </c>
       <c r="B144" t="n">
         <v>19122984</v>
@@ -2591,10 +2344,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2020-12-10</t>
-        </is>
+      <c r="A145" s="4" t="n">
+        <v>44175</v>
       </c>
       <c r="B145" t="n">
         <v>16131256</v>
@@ -2604,10 +2355,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2020-12-15</t>
-        </is>
+      <c r="A146" s="4" t="n">
+        <v>44180</v>
       </c>
       <c r="B146" t="n">
         <v>227108500</v>
@@ -2617,10 +2366,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2020-12-16</t>
-        </is>
+      <c r="A147" s="4" t="n">
+        <v>44181</v>
       </c>
       <c r="B147" t="n">
         <v>69587540</v>
@@ -2630,10 +2377,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2020-12-17</t>
-        </is>
+      <c r="A148" s="4" t="n">
+        <v>44182</v>
       </c>
       <c r="B148" t="n">
         <v>188246750</v>
@@ -2643,10 +2388,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>2020-12-18</t>
-        </is>
+      <c r="A149" s="4" t="n">
+        <v>44183</v>
       </c>
       <c r="B149" t="n">
         <v>114516990</v>
@@ -2656,10 +2399,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>2020-12-21</t>
-        </is>
+      <c r="A150" s="4" t="n">
+        <v>44186</v>
       </c>
       <c r="B150" t="n">
         <v>278497370</v>
@@ -2669,10 +2410,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>2020-12-22</t>
-        </is>
+      <c r="A151" s="4" t="n">
+        <v>44187</v>
       </c>
       <c r="B151" t="n">
         <v>58369560</v>
@@ -2682,10 +2421,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>2020-12-29</t>
-        </is>
+      <c r="A152" s="4" t="n">
+        <v>44194</v>
       </c>
       <c r="B152" t="n">
         <v>39456000</v>
@@ -2695,10 +2432,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>2021-01-06</t>
-        </is>
+      <c r="A153" s="4" t="n">
+        <v>44202</v>
       </c>
       <c r="B153" t="n">
         <v>72077800</v>
@@ -2708,10 +2443,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>2021-01-11</t>
-        </is>
+      <c r="A154" s="4" t="n">
+        <v>44207</v>
       </c>
       <c r="B154" t="n">
         <v>56767220</v>
@@ -2721,10 +2454,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>2021-01-14</t>
-        </is>
+      <c r="A155" s="4" t="n">
+        <v>44210</v>
       </c>
       <c r="B155" t="n">
         <v>330731100</v>
@@ -2734,10 +2465,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>2021-01-18</t>
-        </is>
+      <c r="A156" s="4" t="n">
+        <v>44214</v>
       </c>
       <c r="B156" t="n">
         <v>14023456</v>
@@ -2747,10 +2476,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2021-01-20</t>
-        </is>
+      <c r="A157" s="4" t="n">
+        <v>44216</v>
       </c>
       <c r="B157" t="n">
         <v>47708800</v>
@@ -2760,10 +2487,8 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2021-01-22</t>
-        </is>
+      <c r="A158" s="4" t="n">
+        <v>44218</v>
       </c>
       <c r="B158" t="n">
         <v>18230016</v>
@@ -2773,10 +2498,8 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>2021-01-28</t>
-        </is>
+      <c r="A159" s="4" t="n">
+        <v>44224</v>
       </c>
       <c r="B159" t="n">
         <v>25536392</v>
@@ -2786,10 +2509,8 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2021-02-01</t>
-        </is>
+      <c r="A160" s="4" t="n">
+        <v>44228</v>
       </c>
       <c r="B160" t="n">
         <v>38805216</v>
@@ -2799,10 +2520,8 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>2021-02-02</t>
-        </is>
+      <c r="A161" s="4" t="n">
+        <v>44229</v>
       </c>
       <c r="B161" t="n">
         <v>62338420</v>
@@ -2812,10 +2531,8 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2021-02-03</t>
-        </is>
+      <c r="A162" s="4" t="n">
+        <v>44230</v>
       </c>
       <c r="B162" t="n">
         <v>30782400</v>
@@ -2825,10 +2542,8 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>2021-02-05</t>
-        </is>
+      <c r="A163" s="4" t="n">
+        <v>44232</v>
       </c>
       <c r="B163" t="n">
         <v>72201024</v>
@@ -2838,10 +2553,8 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2021-02-10</t>
-        </is>
+      <c r="A164" s="4" t="n">
+        <v>44237</v>
       </c>
       <c r="B164" t="n">
         <v>10560000</v>
@@ -2851,10 +2564,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>2021-02-16</t>
-        </is>
+      <c r="A165" s="4" t="n">
+        <v>44243</v>
       </c>
       <c r="B165" t="n">
         <v>361260200</v>
@@ -2864,10 +2575,8 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>2021-02-17</t>
-        </is>
+      <c r="A166" s="4" t="n">
+        <v>44244</v>
       </c>
       <c r="B166" t="n">
         <v>188562500</v>
@@ -2877,10 +2586,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>2021-02-19</t>
-        </is>
+      <c r="A167" s="4" t="n">
+        <v>44246</v>
       </c>
       <c r="B167" t="n">
         <v>27801000</v>
@@ -2890,10 +2597,8 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>2021-02-22</t>
-        </is>
+      <c r="A168" s="4" t="n">
+        <v>44249</v>
       </c>
       <c r="B168" t="n">
         <v>38105600</v>
@@ -2903,10 +2608,8 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>2021-02-23</t>
-        </is>
+      <c r="A169" s="4" t="n">
+        <v>44250</v>
       </c>
       <c r="B169" t="n">
         <v>422380000</v>
@@ -2916,10 +2619,8 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>2021-02-25</t>
-        </is>
+      <c r="A170" s="4" t="n">
+        <v>44252</v>
       </c>
       <c r="B170" t="n">
         <v>13785600</v>
@@ -2929,10 +2630,8 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>2021-03-02</t>
-        </is>
+      <c r="A171" s="4" t="n">
+        <v>44257</v>
       </c>
       <c r="B171" t="n">
         <v>32262400</v>
@@ -2942,10 +2641,8 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>2021-03-03</t>
-        </is>
+      <c r="A172" s="4" t="n">
+        <v>44258</v>
       </c>
       <c r="B172" t="n">
         <v>21794600</v>
@@ -2955,10 +2652,8 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>2021-03-09</t>
-        </is>
+      <c r="A173" s="4" t="n">
+        <v>44264</v>
       </c>
       <c r="B173" t="n">
         <v>19682064</v>
@@ -2968,10 +2663,8 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>2021-03-18</t>
-        </is>
+      <c r="A174" s="4" t="n">
+        <v>44273</v>
       </c>
       <c r="B174" t="n">
         <v>21017900</v>
@@ -2981,10 +2674,8 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>2021-03-19</t>
-        </is>
+      <c r="A175" s="4" t="n">
+        <v>44274</v>
       </c>
       <c r="B175" t="n">
         <v>13367400</v>
@@ -2994,10 +2685,8 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>2021-03-22</t>
-        </is>
+      <c r="A176" s="4" t="n">
+        <v>44277</v>
       </c>
       <c r="B176" t="n">
         <v>20715900</v>
@@ -3007,10 +2696,8 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>2021-03-23</t>
-        </is>
+      <c r="A177" s="4" t="n">
+        <v>44278</v>
       </c>
       <c r="B177" t="n">
         <v>27639696</v>
@@ -3020,10 +2707,8 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>2021-03-25</t>
-        </is>
+      <c r="A178" s="4" t="n">
+        <v>44280</v>
       </c>
       <c r="B178" t="n">
         <v>28452300</v>
@@ -3033,10 +2718,8 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>2021-03-26</t>
-        </is>
+      <c r="A179" s="4" t="n">
+        <v>44281</v>
       </c>
       <c r="B179" t="n">
         <v>53014000</v>
@@ -3046,10 +2729,8 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>2021-03-29</t>
-        </is>
+      <c r="A180" s="4" t="n">
+        <v>44284</v>
       </c>
       <c r="B180" t="n">
         <v>6352800</v>
@@ -3059,10 +2740,8 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>2021-03-30</t>
-        </is>
+      <c r="A181" s="4" t="n">
+        <v>44285</v>
       </c>
       <c r="B181" t="n">
         <v>6525000</v>
@@ -3072,10 +2751,8 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>2021-04-05</t>
-        </is>
+      <c r="A182" s="4" t="n">
+        <v>44291</v>
       </c>
       <c r="B182" t="n">
         <v>11705600</v>
@@ -3085,10 +2762,8 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>2021-04-06</t>
-        </is>
+      <c r="A183" s="4" t="n">
+        <v>44292</v>
       </c>
       <c r="B183" t="n">
         <v>483916600</v>
@@ -3098,10 +2773,8 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>2021-04-07</t>
-        </is>
+      <c r="A184" s="4" t="n">
+        <v>44293</v>
       </c>
       <c r="B184" t="n">
         <v>271875000</v>
@@ -3111,10 +2784,8 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>2021-04-08</t>
-        </is>
+      <c r="A185" s="4" t="n">
+        <v>44294</v>
       </c>
       <c r="B185" t="n">
         <v>113773470</v>
@@ -3124,10 +2795,8 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>2021-04-09</t>
-        </is>
+      <c r="A186" s="4" t="n">
+        <v>44295</v>
       </c>
       <c r="B186" t="n">
         <v>7052800</v>
@@ -3139,4 +2808,347 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>nama.barang</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>kuantum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>BERAS</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1965258</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>GULA</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>223436</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>MIGOR</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>24148</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>DAGING</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>15635</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>TEPUNG</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>nama.barang</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>kuantum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>BERAS</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1965258</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>GULA</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>223436</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>MIGOR</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>24148</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>DAGING</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>15635</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>TEPUNG</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Barang</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Masuk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Terjual</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sisa Stok</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Barang</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Sisa Stok</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Rata-rata Penjualan (7 Hari)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Estimasi Habis (hari)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MIGOR</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C2" t="n">
+        <v>998.8571428571429</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.501716247139588</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TEPUNG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>480</v>
+      </c>
+      <c r="C3" t="n">
+        <v>72.28571428571429</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.640316205533597</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BERAS</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1407.142857142857</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.106598984771574</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DAGING</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>865</v>
+      </c>
+      <c r="C5" t="n">
+        <v>57.14285714285715</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.1375</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GULA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>98564</v>
+      </c>
+      <c r="C6" t="n">
+        <v>148.5714285714286</v>
+      </c>
+      <c r="D6" t="n">
+        <v>663.4115384615384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>